--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3131100.025643922</v>
+        <v>3124083.010752211</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>147.1427731355385</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>340.3328804013238</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>118.0124042205641</v>
+        <v>135.1787052649172</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>144.5394096538124</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>108.8074282022286</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>67.17737911999792</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>123.2264323245088</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>40.56696428347033</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>81.02696672970545</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>30.54110646053131</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T13" t="n">
-        <v>216.3816871298944</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.4898845065119</v>
+        <v>75.49838637028822</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>124.0740322943777</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>125.1646047122549</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>161.404652007318</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>83.22762595891399</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>149.0799667719507</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>73.21532344290732</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="32">
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>25.59039506740635</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>12.45256965056616</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>256.111763886877</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>115.2673173526909</v>
+        <v>279.3977360013904</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>64.03417465124653</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>1726.57441852865</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1357.611901588238</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>999.3462029814875</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>613.5579503832432</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>202.5720455936357</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4366,16 +4366,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>1791.109440255352</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.109440255352</v>
+        <v>2113.174258592771</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.6939024587809</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C4" t="n">
-        <v>365.6939024587809</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D4" t="n">
-        <v>365.6939024587809</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="E4" t="n">
-        <v>365.6939024587809</v>
+        <v>190.4871285526041</v>
       </c>
       <c r="F4" t="n">
-        <v>218.8039549608706</v>
+        <v>190.4871285526041</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.6939024587809</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.515311311824</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.552794371412</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>554.3221432721098</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>185.3596263316981</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>185.3596263316981</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>185.3596263316981</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>178.4141255824946</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2382.509002921313</v>
+        <v>2388.358616186808</v>
       </c>
       <c r="V8" t="n">
-        <v>2382.509002921313</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.509002921313</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.509002921313</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y8" t="n">
-        <v>2382.509002921313</v>
+        <v>940.9219833362315</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>579.9823256406182</v>
+        <v>667.8624625746713</v>
       </c>
       <c r="C10" t="n">
-        <v>579.9823256406182</v>
+        <v>667.8624625746713</v>
       </c>
       <c r="D10" t="n">
-        <v>429.8656862282825</v>
+        <v>517.7458231623356</v>
       </c>
       <c r="E10" t="n">
-        <v>429.8656862282825</v>
+        <v>369.8327295799425</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>667.8624625746713</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>667.8624625746713</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406182</v>
+        <v>667.8624625746713</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,25 +5059,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.348909820635</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>991.2202710341935</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>991.2202710341935</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>991.2202710341935</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>763.2307201361762</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5272,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1646.274692278279</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1925.814757496976</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1379.229518531123</v>
+        <v>1422.655274224278</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1198.869859013784</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1198.869859013784</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>944.1853708078966</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>654.768200770936</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,13 +5503,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,46 +5518,46 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011336</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.104817265284</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O18" t="n">
-        <v>2050.644882483981</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>372.9624052601988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>372.9624052601988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>372.9624052601988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273991</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W19" t="n">
-        <v>554.6108700904385</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X19" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,43 +5734,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5834,22 +5834,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>668.5656656016674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>668.5656656016674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>518.4490261893317</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>370.5359326069386</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>223.6459851090282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1298.996260473455</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>1298.996260473455</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>1071.006709575437</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>850.2141304319072</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1335.881268530309</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1112.095853319815</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>822.9672145333731</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>568.2827263274862</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W25" t="n">
-        <v>278.8655562905255</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,16 +6293,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,13 +6411,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1348.33044553573</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1124.545030325236</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U28" t="n">
-        <v>835.416391538794</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
         <v>835.416391538794</v>
@@ -6429,7 +6429,7 @@
         <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,19 +6463,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6490,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6645,25 +6645,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1313.886294955175</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6797,7 +6797,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>592.5368061590563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>423.6006232311494</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>273.4839838188136</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>273.4839838188136</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>273.4839838188136</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>273.4839838188136</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>123.0659753667569</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6891,19 +6891,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570736</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W34" t="n">
-        <v>820.5263570570736</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>592.5368061590563</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>592.5368061590563</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6949,22 +6949,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,7 +6973,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7004,28 +7004,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>573.5346686508863</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>404.5984857229794</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>404.5984857229794</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>256.6853921405863</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>109.7954446426759</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>755.183133481126</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>755.183133481126</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>755.183133481126</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>755.183133481126</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7216,10 +7216,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1240.217519157017</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>985.5330309511296</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>696.115860914169</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>468.1263100161517</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>247.3337308726216</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7432,28 +7432,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>675.0071030383442</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W43" t="n">
-        <v>558.5754693487575</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>558.5754693487575</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>558.5754693487575</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>273.432667334547</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>273.432667334547</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>420.3226148324574</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142011</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>199.6230805871095</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>52.49733361305351</v>
       </c>
       <c r="P18" t="n">
-        <v>73.53204524670059</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>50.62661940943616</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>288.409182577674</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T13" t="n">
-        <v>5.165873928494818</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43092547709136</v>
+        <v>122.422423613315</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>22.35993035219148</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>41.32896375112266</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,19 +24177,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>36.51615797628529</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>135.3570273931808</v>
       </c>
     </row>
     <row r="26">
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>48.84084321165253</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>124.7054865406959</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>84.82885039686563</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>30.90698584635156</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>154.0409988128114</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>30.12558851170036</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>194.5731143188404</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>171.2556809839001</v>
+        <v>7.125262335200603</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>84.8796537162896</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110562</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>744790.5744110562</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>744790.5744110562</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>744790.5744110562</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="15">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380333</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="E2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="I2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="J2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645197.9485672198</v>
+      </c>
+      <c r="L2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="K2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645197.9485672193</v>
-      </c>
       <c r="M2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="N2" t="n">
         <v>645197.9485672193</v>
@@ -26355,7 +26355,7 @@
         <v>645197.9485672193</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672193</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687074</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26450,7 +26450,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,13 +26487,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-161100.3649264449</v>
+        <v>-161100.3649264448</v>
       </c>
       <c r="C6" t="n">
-        <v>428867.5142880994</v>
+        <v>428867.5142880997</v>
       </c>
       <c r="D6" t="n">
-        <v>428867.5142880996</v>
+        <v>428867.5142880995</v>
       </c>
       <c r="E6" t="n">
-        <v>5875.978554736139</v>
+        <v>4901.387295014264</v>
       </c>
       <c r="F6" t="n">
-        <v>531036.0150316318</v>
+        <v>530061.4237719105</v>
       </c>
       <c r="G6" t="n">
-        <v>531036.0150316319</v>
+        <v>530061.4237719104</v>
       </c>
       <c r="H6" t="n">
-        <v>531036.0150316323</v>
+        <v>530061.4237719104</v>
       </c>
       <c r="I6" t="n">
-        <v>531036.0150316319</v>
+        <v>530061.4237719106</v>
       </c>
       <c r="J6" t="n">
-        <v>354612.7958390394</v>
+        <v>353638.2045793176</v>
       </c>
       <c r="K6" t="n">
-        <v>531036.0150316322</v>
+        <v>530061.4237719108</v>
       </c>
       <c r="L6" t="n">
-        <v>531036.015031632</v>
+        <v>530061.4237719105</v>
       </c>
       <c r="M6" t="n">
-        <v>396234.9997977946</v>
+        <v>395260.4085380731</v>
       </c>
       <c r="N6" t="n">
-        <v>531036.015031632</v>
+        <v>530061.4237719104</v>
       </c>
       <c r="O6" t="n">
-        <v>531036.015031632</v>
+        <v>530061.4237719104</v>
       </c>
       <c r="P6" t="n">
-        <v>531036.0150316323</v>
+        <v>530061.4237719104</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26743,22 +26743,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990168</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>266.6413968852565</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>29.39822027714524</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>49.29739803848686</v>
+        <v>32.13109699413369</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>210.1436319668705</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>260.9236724762404</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,16 +27779,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>81.43809389821443</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27827,16 +27827,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>290.5577376962862</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>210.657203224819</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,22 +28019,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>64.3940812932258</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>255.9818918760597</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28143,13 +28143,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.169471064289421e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31521,22 +31521,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119866</v>
@@ -31545,19 +31545,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31715,7 +31715,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770693</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
@@ -35743,10 +35743,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>406.7164955186342</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541616</v>
       </c>
       <c r="P18" t="n">
-        <v>280.6254601782252</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>201.2020579973754</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>570.7728848187824</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3124083.010752211</v>
+        <v>3129022.273601244</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>147.1427731355385</v>
+        <v>318.5052407093371</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>135.1787052649172</v>
+        <v>86.11283245544973</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>109.4422623037129</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>108.8074282022286</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>67.17737911999792</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>126.5467427872845</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>176.4692844434885</v>
       </c>
       <c r="G8" t="n">
-        <v>123.2264323245088</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481168</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586851</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491429</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>30.54110646053131</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>110.0642909656604</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>75.49838637028822</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>64.53987525659791</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>59.77945773665003</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>225.1809026611662</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.22762595891399</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U34" t="n">
-        <v>271.7818641996879</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>57.5645290049876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>279.3977360013904</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>254.3897858997024</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1726.57441852865</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="C2" t="n">
-        <v>1357.611901588238</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="D2" t="n">
-        <v>999.3462029814875</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="E2" t="n">
-        <v>613.5579503832432</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="F2" t="n">
-        <v>202.5720455936357</v>
+        <v>856.3261431522387</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2113.174258592771</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>2113.174258592771</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629041</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C4" t="n">
-        <v>338.4002221349972</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D4" t="n">
-        <v>338.4002221349972</v>
+        <v>288.8387344486664</v>
       </c>
       <c r="E4" t="n">
-        <v>190.4871285526041</v>
+        <v>140.9256408662733</v>
       </c>
       <c r="F4" t="n">
-        <v>190.4871285526041</v>
+        <v>140.9256408662733</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.514423990285</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694736</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>438.7118141694736</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694736</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721098</v>
+        <v>631.906440948188</v>
       </c>
       <c r="C8" t="n">
-        <v>185.3596263316981</v>
+        <v>631.906440948188</v>
       </c>
       <c r="D8" t="n">
-        <v>185.3596263316981</v>
+        <v>631.906440948188</v>
       </c>
       <c r="E8" t="n">
-        <v>185.3596263316981</v>
+        <v>246.1181883499438</v>
       </c>
       <c r="F8" t="n">
-        <v>178.4141255824946</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186808</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843237</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573123</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312043</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362315</v>
+        <v>1018.50628101231</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.8624625746713</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746713</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623356</v>
+        <v>409.0761618661917</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799425</v>
+        <v>261.1630682837986</v>
       </c>
       <c r="F10" t="n">
-        <v>222.9427820820321</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>667.8624625746713</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>667.8624625746713</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.8624625746713</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5032,55 +5032,55 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2208.321444831247</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>355.2830904386612</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>355.2830904386612</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>355.2830904386612</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>985.7136853104485</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028583</v>
+        <v>757.7241344124311</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>536.931555268901</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5269,61 +5269,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2279.445761859784</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1422.655274224278</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T16" t="n">
-        <v>1198.869859013784</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1198.869859013784</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V16" t="n">
-        <v>944.1853708078966</v>
+        <v>820.5263570570745</v>
       </c>
       <c r="W16" t="n">
-        <v>654.768200770936</v>
+        <v>755.3345638685918</v>
       </c>
       <c r="X16" t="n">
-        <v>426.7786498729187</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y16" t="n">
-        <v>426.7786498729187</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845919</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977053</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765184</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706316</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W19" t="n">
-        <v>241.980548233671</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033667</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>462.7283310300498</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570736</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W25" t="n">
-        <v>531.109187020113</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>531.109187020113</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.040877970705</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,19 +6214,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6457,37 +6457,37 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823761</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231263</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>531.109187020113</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,31 +6876,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>800.6837097077201</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014291</v>
@@ -6967,22 +6967,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675024</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028583</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142011</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>124.3400780863216</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298096</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229593</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>52.49733361305141</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305351</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119833</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>50.62661940943616</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720712</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711621</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928309</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>36.36967168090881</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
-        <v>122.422423613315</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>221.9831230799931</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8051956154447</v>
       </c>
     </row>
     <row r="20">
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>61.34209567542484</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.3570273931808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.74113413690304</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U34" t="n">
-        <v>14.45548819888944</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>30.90698584635156</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>194.5731143188404</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>176.3280338692828</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>7.125262335200603</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>31.84756649887495</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>744790.5744110562</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
     <row r="8">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.948567219</v>
       </c>
       <c r="G2" t="n">
         <v>645197.9485672193</v>
@@ -26334,19 +26334,19 @@
         <v>645197.9485672194</v>
       </c>
       <c r="I2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="K2" t="n">
         <v>645197.9485672195</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>645197.9485672195</v>
       </c>
-      <c r="K2" t="n">
-        <v>645197.9485672198</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645197.9485672191</v>
       </c>
       <c r="N2" t="n">
         <v>645197.9485672193</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687067</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26475,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-161100.3649264448</v>
+        <v>-161100.3649264447</v>
       </c>
       <c r="C6" t="n">
-        <v>428867.5142880997</v>
+        <v>428867.5142880994</v>
       </c>
       <c r="D6" t="n">
         <v>428867.5142880995</v>
       </c>
       <c r="E6" t="n">
-        <v>4901.387295014264</v>
+        <v>5778.519428763335</v>
       </c>
       <c r="F6" t="n">
-        <v>530061.4237719105</v>
+        <v>530938.5559056596</v>
       </c>
       <c r="G6" t="n">
-        <v>530061.4237719104</v>
+        <v>530938.5559056601</v>
       </c>
       <c r="H6" t="n">
-        <v>530061.4237719104</v>
+        <v>530938.55590566</v>
       </c>
       <c r="I6" t="n">
-        <v>530061.4237719106</v>
+        <v>530938.5559056603</v>
       </c>
       <c r="J6" t="n">
-        <v>353638.2045793176</v>
+        <v>354515.3367130671</v>
       </c>
       <c r="K6" t="n">
-        <v>530061.4237719108</v>
+        <v>530938.5559056601</v>
       </c>
       <c r="L6" t="n">
-        <v>530061.4237719105</v>
+        <v>530938.5559056601</v>
       </c>
       <c r="M6" t="n">
-        <v>395260.4085380731</v>
+        <v>396137.5406718228</v>
       </c>
       <c r="N6" t="n">
-        <v>530061.4237719104</v>
+        <v>530938.5559056599</v>
       </c>
       <c r="O6" t="n">
-        <v>530061.4237719104</v>
+        <v>530938.5559056598</v>
       </c>
       <c r="P6" t="n">
-        <v>530061.4237719104</v>
+        <v>530938.5559056599</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990168</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>266.6413968852565</v>
+        <v>95.27892931145789</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>32.13109699413369</v>
+        <v>81.19696980360118</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>245.24077931697</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>260.9236724762404</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>81.43809389821443</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>159.9762555493065</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>230.406761298223</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>290.5577376962862</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>255.9818918760597</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-8.707735062108396e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31521,22 +31521,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119866</v>
@@ -31545,19 +31545,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31715,7 +31715,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,31 +32402,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770693</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>331.4334930178464</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734254</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>259.5907485445763</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541616</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408111</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>201.2020579973754</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415054</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303305</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221102</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
